--- a/ASSIGNEMENT-1/ASSIGNMENT-1.xlsx
+++ b/ASSIGNEMENT-1/ASSIGNMENT-1.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academy\DEVOPS\GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkomendah\test-projects\ASSIGNEMENT-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kago" sheetId="1" r:id="rId1"/>
+    <sheet name="Felix" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,15 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Create your own sheet</t>
   </si>
+  <si>
+    <t>Mi ni ule mbaya…..</t>
+  </si>
+  <si>
+    <t>Y'all better recognize</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,7 +353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -367,4 +374,29 @@
     <oddFooter>&amp;R&amp;1#&amp;"Calibri"&amp;10 C3 - Safaricom Confidential Internal</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>